--- a/Quiz-Template.xlsx
+++ b/Quiz-Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rugom\PycharmProjects\Quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED54D87-CBB7-49A9-B14E-5C88A040246B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5CCF64-FFC6-493D-A52E-B1001A015788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{CBFC55AB-2042-442C-BF0B-E5186C532A0B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="12900" xr2:uid="{CBFC55AB-2042-442C-BF0B-E5186C532A0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -38,15 +38,15 @@
     <t>Pregunta ejemplo / Example question?</t>
   </si>
   <si>
-    <t>Opción 1/ Option 1 - Opción 2 / Option 2 - Opción 3 / Option 3 - Opción 4 / Option 4</t>
-  </si>
-  <si>
     <t>Opción 1 / Option 1</t>
   </si>
   <si>
     <t>Opciones / Answers
 (Añadir como en el ejemplo sin indicar a,b… / Add as in the example without a,b…)
-(Hay que separar cada respuesta con " - " / Each answer must be separated with) " - "</t>
+(Hay que separar cada respuesta con " &amp; " / Each answer must be separated with) " &amp; "</t>
+  </si>
+  <si>
+    <t>Opción 1/ Option 1 &amp; Opción 2 / Option 2 &amp; Opción 3 / Option 3 &amp; Opción 4 / Option 4</t>
   </si>
 </sst>
 </file>
@@ -510,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F4FB4BE-E6DB-4F0D-B331-205EF9F30DA5}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,7 +531,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -547,10 +547,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
